--- a/ML/perfumes.xlsx
+++ b/ML/perfumes.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ssafy\PJT2\S06P22D104\ML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80A79CA1-CF41-4E57-A1D8-0CEAEAD58103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00C0DF63-88A2-40A8-A85F-72358426A4C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="kmeans_train" sheetId="1" r:id="rId1"/>
+    <sheet name="kmeans_test" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8903" uniqueCount="1616">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9230" uniqueCount="1616">
   <si>
     <t>Group</t>
   </si>
@@ -5288,8 +5289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O1112"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -57568,4 +57569,1904 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83125CB9-2952-4C9C-9E89-3FCDBE62029A}">
+  <dimension ref="A1:O40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="11" max="11" width="64.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>497</v>
+      </c>
+      <c r="H2" t="s">
+        <v>502</v>
+      </c>
+      <c r="I2">
+        <v>4.18</v>
+      </c>
+      <c r="J2">
+        <v>2113</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>1605</v>
+      </c>
+      <c r="M2" s="3">
+        <v>0</v>
+      </c>
+      <c r="N2" s="3">
+        <v>3</v>
+      </c>
+      <c r="O2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>497</v>
+      </c>
+      <c r="H3" t="s">
+        <v>502</v>
+      </c>
+      <c r="I3">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="J3">
+        <v>30</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>1605</v>
+      </c>
+      <c r="M3" s="3">
+        <v>0</v>
+      </c>
+      <c r="N3" s="3">
+        <v>0</v>
+      </c>
+      <c r="O3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D4" t="s">
+        <v>187</v>
+      </c>
+      <c r="E4" s="3">
+        <v>2</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>497</v>
+      </c>
+      <c r="H4" t="s">
+        <v>503</v>
+      </c>
+      <c r="I4">
+        <v>3.58</v>
+      </c>
+      <c r="J4">
+        <v>18</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>1605</v>
+      </c>
+      <c r="M4" s="3">
+        <v>1</v>
+      </c>
+      <c r="N4" s="3">
+        <v>3</v>
+      </c>
+      <c r="O4" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" t="s">
+        <v>322</v>
+      </c>
+      <c r="D5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" s="3">
+        <v>2</v>
+      </c>
+      <c r="F5" s="3">
+        <v>2</v>
+      </c>
+      <c r="G5" t="s">
+        <v>498</v>
+      </c>
+      <c r="H5" t="s">
+        <v>502</v>
+      </c>
+      <c r="I5">
+        <v>3.71</v>
+      </c>
+      <c r="J5">
+        <v>179</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>1606</v>
+      </c>
+      <c r="M5" s="3">
+        <v>2</v>
+      </c>
+      <c r="N5" s="3">
+        <v>3</v>
+      </c>
+      <c r="O5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" s="3">
+        <v>2</v>
+      </c>
+      <c r="F6" s="3">
+        <v>2</v>
+      </c>
+      <c r="G6" t="s">
+        <v>497</v>
+      </c>
+      <c r="H6" t="s">
+        <v>502</v>
+      </c>
+      <c r="I6">
+        <v>3.44</v>
+      </c>
+      <c r="J6">
+        <v>392</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>1606</v>
+      </c>
+      <c r="M6" s="3">
+        <v>0</v>
+      </c>
+      <c r="N6" s="3">
+        <v>0</v>
+      </c>
+      <c r="O6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" t="s">
+        <v>295</v>
+      </c>
+      <c r="D7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
+        <v>498</v>
+      </c>
+      <c r="H7" t="s">
+        <v>498</v>
+      </c>
+      <c r="I7">
+        <v>3.89</v>
+      </c>
+      <c r="J7">
+        <v>274</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>1606</v>
+      </c>
+      <c r="M7" s="3">
+        <v>2</v>
+      </c>
+      <c r="N7" s="3">
+        <v>2</v>
+      </c>
+      <c r="O7" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C8" t="s">
+        <v>351</v>
+      </c>
+      <c r="D8" t="s">
+        <v>225</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" t="s">
+        <v>498</v>
+      </c>
+      <c r="H8" t="s">
+        <v>498</v>
+      </c>
+      <c r="I8">
+        <v>3.99</v>
+      </c>
+      <c r="J8">
+        <v>147</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>712</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>1607</v>
+      </c>
+      <c r="M8" s="3">
+        <v>1</v>
+      </c>
+      <c r="N8" s="3">
+        <v>2</v>
+      </c>
+      <c r="O8" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>151</v>
+      </c>
+      <c r="C9" t="s">
+        <v>352</v>
+      </c>
+      <c r="D9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>498</v>
+      </c>
+      <c r="H9" t="s">
+        <v>498</v>
+      </c>
+      <c r="I9">
+        <v>3.74</v>
+      </c>
+      <c r="J9">
+        <v>788</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>1607</v>
+      </c>
+      <c r="M9" s="3">
+        <v>1</v>
+      </c>
+      <c r="N9" s="3">
+        <v>2</v>
+      </c>
+      <c r="O9" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C10" t="s">
+        <v>101</v>
+      </c>
+      <c r="D10" t="s">
+        <v>95</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" t="s">
+        <v>498</v>
+      </c>
+      <c r="H10" t="s">
+        <v>498</v>
+      </c>
+      <c r="I10">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="J10">
+        <v>127</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>1607</v>
+      </c>
+      <c r="M10" s="3">
+        <v>1</v>
+      </c>
+      <c r="N10" s="3">
+        <v>2</v>
+      </c>
+      <c r="O10" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" t="s">
+        <v>224</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3">
+        <v>2</v>
+      </c>
+      <c r="G11" t="s">
+        <v>497</v>
+      </c>
+      <c r="H11" t="s">
+        <v>502</v>
+      </c>
+      <c r="I11">
+        <v>4</v>
+      </c>
+      <c r="J11">
+        <v>472</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>929</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>1608</v>
+      </c>
+      <c r="M11" s="3">
+        <v>2</v>
+      </c>
+      <c r="N11" s="3">
+        <v>3</v>
+      </c>
+      <c r="O11" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" t="s">
+        <v>126</v>
+      </c>
+      <c r="C12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3">
+        <v>2</v>
+      </c>
+      <c r="G12" t="s">
+        <v>497</v>
+      </c>
+      <c r="H12" t="s">
+        <v>502</v>
+      </c>
+      <c r="I12">
+        <v>4.07</v>
+      </c>
+      <c r="J12">
+        <v>414</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>930</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>1608</v>
+      </c>
+      <c r="M12" s="3">
+        <v>2</v>
+      </c>
+      <c r="N12" s="3">
+        <v>0</v>
+      </c>
+      <c r="O12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" t="s">
+        <v>163</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0</v>
+      </c>
+      <c r="G13" t="s">
+        <v>498</v>
+      </c>
+      <c r="H13" t="s">
+        <v>498</v>
+      </c>
+      <c r="I13">
+        <v>4.28</v>
+      </c>
+      <c r="J13">
+        <v>1353</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>931</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>1608</v>
+      </c>
+      <c r="M13" s="3">
+        <v>2</v>
+      </c>
+      <c r="N13" s="3">
+        <v>3</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" t="s">
+        <v>152</v>
+      </c>
+      <c r="C14" t="s">
+        <v>190</v>
+      </c>
+      <c r="D14" t="s">
+        <v>91</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" t="s">
+        <v>498</v>
+      </c>
+      <c r="H14" t="s">
+        <v>498</v>
+      </c>
+      <c r="I14">
+        <v>3.58</v>
+      </c>
+      <c r="J14">
+        <v>330</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>975</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>1609</v>
+      </c>
+      <c r="M14" s="3">
+        <v>1</v>
+      </c>
+      <c r="N14" s="3">
+        <v>2</v>
+      </c>
+      <c r="O14" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>225</v>
+      </c>
+      <c r="C15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" t="s">
+        <v>464</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" t="s">
+        <v>498</v>
+      </c>
+      <c r="H15" t="s">
+        <v>498</v>
+      </c>
+      <c r="I15">
+        <v>3.45</v>
+      </c>
+      <c r="J15">
+        <v>292</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>976</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>1609</v>
+      </c>
+      <c r="M15" s="3">
+        <v>1</v>
+      </c>
+      <c r="N15" s="3">
+        <v>2</v>
+      </c>
+      <c r="O15" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" t="s">
+        <v>152</v>
+      </c>
+      <c r="E16" s="3">
+        <v>2</v>
+      </c>
+      <c r="F16" s="3">
+        <v>2</v>
+      </c>
+      <c r="G16" t="s">
+        <v>498</v>
+      </c>
+      <c r="H16" t="s">
+        <v>498</v>
+      </c>
+      <c r="I16">
+        <v>3.87</v>
+      </c>
+      <c r="J16">
+        <v>523</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>977</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>1609</v>
+      </c>
+      <c r="M16" s="3">
+        <v>1</v>
+      </c>
+      <c r="N16" s="3">
+        <v>2</v>
+      </c>
+      <c r="O16" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" t="s">
+        <v>333</v>
+      </c>
+      <c r="D17" t="s">
+        <v>124</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0</v>
+      </c>
+      <c r="G17" t="s">
+        <v>498</v>
+      </c>
+      <c r="H17" t="s">
+        <v>498</v>
+      </c>
+      <c r="I17">
+        <v>3.64</v>
+      </c>
+      <c r="J17">
+        <v>130</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>1009</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>1610</v>
+      </c>
+      <c r="M17" s="3">
+        <v>2</v>
+      </c>
+      <c r="N17" s="3">
+        <v>0</v>
+      </c>
+      <c r="O17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>233</v>
+      </c>
+      <c r="C18" t="s">
+        <v>124</v>
+      </c>
+      <c r="D18" t="s">
+        <v>84</v>
+      </c>
+      <c r="E18" s="3">
+        <v>2</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" t="s">
+        <v>497</v>
+      </c>
+      <c r="H18" t="s">
+        <v>502</v>
+      </c>
+      <c r="I18">
+        <v>3.9</v>
+      </c>
+      <c r="J18">
+        <v>169</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>1010</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>1610</v>
+      </c>
+      <c r="M18" s="3">
+        <v>2</v>
+      </c>
+      <c r="N18" s="3">
+        <v>3</v>
+      </c>
+      <c r="O18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" t="s">
+        <v>85</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0</v>
+      </c>
+      <c r="G19" t="s">
+        <v>498</v>
+      </c>
+      <c r="H19" t="s">
+        <v>498</v>
+      </c>
+      <c r="I19">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="J19">
+        <v>656</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>1011</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>1610</v>
+      </c>
+      <c r="M19" s="3">
+        <v>2</v>
+      </c>
+      <c r="N19" s="3">
+        <v>3</v>
+      </c>
+      <c r="O19" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" t="s">
+        <v>162</v>
+      </c>
+      <c r="E20" s="3">
+        <v>2</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" t="s">
+        <v>498</v>
+      </c>
+      <c r="H20" t="s">
+        <v>502</v>
+      </c>
+      <c r="I20">
+        <v>3.99</v>
+      </c>
+      <c r="J20">
+        <v>314</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>1053</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>1611</v>
+      </c>
+      <c r="M20" s="3">
+        <v>1</v>
+      </c>
+      <c r="N20" s="3">
+        <v>2</v>
+      </c>
+      <c r="O20" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>154</v>
+      </c>
+      <c r="C21" t="s">
+        <v>388</v>
+      </c>
+      <c r="D21" t="s">
+        <v>85</v>
+      </c>
+      <c r="E21" s="3">
+        <v>2</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" t="s">
+        <v>498</v>
+      </c>
+      <c r="H21" t="s">
+        <v>498</v>
+      </c>
+      <c r="I21">
+        <v>3.5</v>
+      </c>
+      <c r="J21">
+        <v>33</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>1054</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>1611</v>
+      </c>
+      <c r="M21" s="3">
+        <v>1</v>
+      </c>
+      <c r="N21" s="3">
+        <v>2</v>
+      </c>
+      <c r="O21" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" t="s">
+        <v>154</v>
+      </c>
+      <c r="C22" t="s">
+        <v>85</v>
+      </c>
+      <c r="D22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" t="s">
+        <v>498</v>
+      </c>
+      <c r="H22" t="s">
+        <v>498</v>
+      </c>
+      <c r="I22">
+        <v>4</v>
+      </c>
+      <c r="J22">
+        <v>66</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>1055</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>1611</v>
+      </c>
+      <c r="M22" s="3">
+        <v>1</v>
+      </c>
+      <c r="N22" s="3">
+        <v>2</v>
+      </c>
+      <c r="O22" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>257</v>
+      </c>
+      <c r="C23" t="s">
+        <v>147</v>
+      </c>
+      <c r="D23" t="s">
+        <v>166</v>
+      </c>
+      <c r="E23" s="3">
+        <v>1</v>
+      </c>
+      <c r="F23" s="3">
+        <v>2</v>
+      </c>
+      <c r="G23" t="s">
+        <v>498</v>
+      </c>
+      <c r="H23" t="s">
+        <v>498</v>
+      </c>
+      <c r="I23">
+        <v>4.26</v>
+      </c>
+      <c r="J23">
+        <v>1242</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>1145</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>1612</v>
+      </c>
+      <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
+        <v>3</v>
+      </c>
+      <c r="O23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" t="s">
+        <v>242</v>
+      </c>
+      <c r="C24" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" t="s">
+        <v>67</v>
+      </c>
+      <c r="E24" s="3">
+        <v>2</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" t="s">
+        <v>497</v>
+      </c>
+      <c r="H24" t="s">
+        <v>502</v>
+      </c>
+      <c r="I24">
+        <v>3.93</v>
+      </c>
+      <c r="J24">
+        <v>36</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>1146</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>1612</v>
+      </c>
+      <c r="M24" s="3">
+        <v>1</v>
+      </c>
+      <c r="N24" s="3">
+        <v>2</v>
+      </c>
+      <c r="O24" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" t="s">
+        <v>112</v>
+      </c>
+      <c r="C25" t="s">
+        <v>69</v>
+      </c>
+      <c r="D25" t="s">
+        <v>123</v>
+      </c>
+      <c r="E25" s="3">
+        <v>1</v>
+      </c>
+      <c r="F25" s="3">
+        <v>1</v>
+      </c>
+      <c r="G25" t="s">
+        <v>498</v>
+      </c>
+      <c r="H25" t="s">
+        <v>498</v>
+      </c>
+      <c r="I25">
+        <v>4.46</v>
+      </c>
+      <c r="J25">
+        <v>25</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>1147</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>1612</v>
+      </c>
+      <c r="M25" s="3">
+        <v>1</v>
+      </c>
+      <c r="N25" s="3">
+        <v>2</v>
+      </c>
+      <c r="O25" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" t="s">
+        <v>265</v>
+      </c>
+      <c r="C26" t="s">
+        <v>77</v>
+      </c>
+      <c r="D26" t="s">
+        <v>473</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1</v>
+      </c>
+      <c r="F26" s="3">
+        <v>1</v>
+      </c>
+      <c r="G26" t="s">
+        <v>497</v>
+      </c>
+      <c r="H26" t="s">
+        <v>502</v>
+      </c>
+      <c r="I26">
+        <v>4.41</v>
+      </c>
+      <c r="J26">
+        <v>138</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>1198</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>1199</v>
+      </c>
+      <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
+        <v>3</v>
+      </c>
+      <c r="O26" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" t="s">
+        <v>242</v>
+      </c>
+      <c r="D27" t="s">
+        <v>73</v>
+      </c>
+      <c r="E27" s="3">
+        <v>2</v>
+      </c>
+      <c r="F27" s="3">
+        <v>2</v>
+      </c>
+      <c r="G27" t="s">
+        <v>497</v>
+      </c>
+      <c r="H27" t="s">
+        <v>498</v>
+      </c>
+      <c r="I27">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="J27">
+        <v>56</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>1199</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>1199</v>
+      </c>
+      <c r="M27" s="3">
+        <v>1</v>
+      </c>
+      <c r="N27" s="3">
+        <v>2</v>
+      </c>
+      <c r="O27" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" t="s">
+        <v>111</v>
+      </c>
+      <c r="C28" t="s">
+        <v>276</v>
+      </c>
+      <c r="D28" t="s">
+        <v>119</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0</v>
+      </c>
+      <c r="F28" s="3">
+        <v>0</v>
+      </c>
+      <c r="G28" t="s">
+        <v>498</v>
+      </c>
+      <c r="H28" t="s">
+        <v>498</v>
+      </c>
+      <c r="I28">
+        <v>2.57</v>
+      </c>
+      <c r="J28">
+        <v>176</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>1200</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>1199</v>
+      </c>
+      <c r="M28" s="3">
+        <v>1</v>
+      </c>
+      <c r="N28" s="3">
+        <v>3</v>
+      </c>
+      <c r="O28" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" t="s">
+        <v>54</v>
+      </c>
+      <c r="D29" t="s">
+        <v>261</v>
+      </c>
+      <c r="E29" s="3">
+        <v>1</v>
+      </c>
+      <c r="F29" s="3">
+        <v>1</v>
+      </c>
+      <c r="G29" t="s">
+        <v>498</v>
+      </c>
+      <c r="H29" t="s">
+        <v>498</v>
+      </c>
+      <c r="I29">
+        <v>3.95</v>
+      </c>
+      <c r="J29">
+        <v>3745</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>1338</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>1613</v>
+      </c>
+      <c r="M29" s="3">
+        <v>2</v>
+      </c>
+      <c r="N29" s="3">
+        <v>3</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" t="s">
+        <v>101</v>
+      </c>
+      <c r="C30" t="s">
+        <v>134</v>
+      </c>
+      <c r="D30" t="s">
+        <v>124</v>
+      </c>
+      <c r="E30" s="3">
+        <v>2</v>
+      </c>
+      <c r="F30" s="3">
+        <v>0</v>
+      </c>
+      <c r="G30" t="s">
+        <v>498</v>
+      </c>
+      <c r="H30" t="s">
+        <v>498</v>
+      </c>
+      <c r="I30">
+        <v>3.77</v>
+      </c>
+      <c r="J30">
+        <v>1229</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>1339</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>1613</v>
+      </c>
+      <c r="M30" s="3">
+        <v>1</v>
+      </c>
+      <c r="N30" s="3">
+        <v>3</v>
+      </c>
+      <c r="O30" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" t="s">
+        <v>101</v>
+      </c>
+      <c r="C31" t="s">
+        <v>134</v>
+      </c>
+      <c r="D31" t="s">
+        <v>54</v>
+      </c>
+      <c r="E31" s="3">
+        <v>2</v>
+      </c>
+      <c r="F31" s="3">
+        <v>2</v>
+      </c>
+      <c r="G31" t="s">
+        <v>497</v>
+      </c>
+      <c r="H31" t="s">
+        <v>502</v>
+      </c>
+      <c r="I31">
+        <v>3.57</v>
+      </c>
+      <c r="J31">
+        <v>105</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>1340</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>1613</v>
+      </c>
+      <c r="M31" s="3">
+        <v>1</v>
+      </c>
+      <c r="N31" s="3">
+        <v>3</v>
+      </c>
+      <c r="O31" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" t="s">
+        <v>242</v>
+      </c>
+      <c r="C32" t="s">
+        <v>131</v>
+      </c>
+      <c r="D32" t="s">
+        <v>68</v>
+      </c>
+      <c r="E32" s="3">
+        <v>2</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" t="s">
+        <v>498</v>
+      </c>
+      <c r="H32" t="s">
+        <v>498</v>
+      </c>
+      <c r="I32">
+        <v>4.13</v>
+      </c>
+      <c r="J32">
+        <v>155</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>1416</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>1614</v>
+      </c>
+      <c r="M32" s="3">
+        <v>1</v>
+      </c>
+      <c r="N32" s="3">
+        <v>2</v>
+      </c>
+      <c r="O32" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>19</v>
+      </c>
+      <c r="B33" t="s">
+        <v>242</v>
+      </c>
+      <c r="C33" t="s">
+        <v>131</v>
+      </c>
+      <c r="D33" t="s">
+        <v>48</v>
+      </c>
+      <c r="E33" s="3">
+        <v>1</v>
+      </c>
+      <c r="F33" s="3">
+        <v>2</v>
+      </c>
+      <c r="G33" t="s">
+        <v>497</v>
+      </c>
+      <c r="H33" t="s">
+        <v>498</v>
+      </c>
+      <c r="I33">
+        <v>4.13</v>
+      </c>
+      <c r="J33">
+        <v>16</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>1417</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>1614</v>
+      </c>
+      <c r="M33" s="3">
+        <v>2</v>
+      </c>
+      <c r="N33" s="3">
+        <v>2</v>
+      </c>
+      <c r="O33" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>28</v>
+      </c>
+      <c r="B34" t="s">
+        <v>60</v>
+      </c>
+      <c r="C34" t="s">
+        <v>172</v>
+      </c>
+      <c r="D34" t="s">
+        <v>78</v>
+      </c>
+      <c r="E34" s="3">
+        <v>1</v>
+      </c>
+      <c r="F34" s="3">
+        <v>2</v>
+      </c>
+      <c r="G34" t="s">
+        <v>497</v>
+      </c>
+      <c r="H34" t="s">
+        <v>502</v>
+      </c>
+      <c r="I34">
+        <v>4.01</v>
+      </c>
+      <c r="J34">
+        <v>396</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>1418</v>
+      </c>
+      <c r="L34" s="3" t="s">
+        <v>1614</v>
+      </c>
+      <c r="M34" s="3">
+        <v>1</v>
+      </c>
+      <c r="N34" s="3">
+        <v>2</v>
+      </c>
+      <c r="O34" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>16</v>
+      </c>
+      <c r="B35" t="s">
+        <v>76</v>
+      </c>
+      <c r="C35" t="s">
+        <v>102</v>
+      </c>
+      <c r="D35" t="s">
+        <v>124</v>
+      </c>
+      <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" t="s">
+        <v>498</v>
+      </c>
+      <c r="H35" t="s">
+        <v>502</v>
+      </c>
+      <c r="I35">
+        <v>3.71</v>
+      </c>
+      <c r="J35">
+        <v>47</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>1483</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>1615</v>
+      </c>
+      <c r="M35" s="3">
+        <v>2</v>
+      </c>
+      <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>21</v>
+      </c>
+      <c r="B36" t="s">
+        <v>242</v>
+      </c>
+      <c r="C36" t="s">
+        <v>73</v>
+      </c>
+      <c r="D36" t="s">
+        <v>131</v>
+      </c>
+      <c r="E36" s="3">
+        <v>0</v>
+      </c>
+      <c r="F36" s="3">
+        <v>0</v>
+      </c>
+      <c r="G36" t="s">
+        <v>498</v>
+      </c>
+      <c r="H36" t="s">
+        <v>502</v>
+      </c>
+      <c r="I36">
+        <v>3.81</v>
+      </c>
+      <c r="J36">
+        <v>79</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>1484</v>
+      </c>
+      <c r="L36" s="3" t="s">
+        <v>1615</v>
+      </c>
+      <c r="M36" s="3">
+        <v>2</v>
+      </c>
+      <c r="N36" s="3">
+        <v>2</v>
+      </c>
+      <c r="O36" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>123</v>
+      </c>
+      <c r="C37" t="s">
+        <v>244</v>
+      </c>
+      <c r="D37" t="s">
+        <v>77</v>
+      </c>
+      <c r="E37" s="3">
+        <v>2</v>
+      </c>
+      <c r="F37" s="3">
+        <v>0</v>
+      </c>
+      <c r="G37" t="s">
+        <v>499</v>
+      </c>
+      <c r="H37" t="s">
+        <v>502</v>
+      </c>
+      <c r="I37">
+        <v>3.43</v>
+      </c>
+      <c r="J37">
+        <v>29</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>1485</v>
+      </c>
+      <c r="L37" s="3" t="s">
+        <v>1615</v>
+      </c>
+      <c r="M37" s="3">
+        <v>2</v>
+      </c>
+      <c r="N37" s="3">
+        <v>3</v>
+      </c>
+      <c r="O37" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>20</v>
+      </c>
+      <c r="B38" t="s">
+        <v>321</v>
+      </c>
+      <c r="C38" t="s">
+        <v>95</v>
+      </c>
+      <c r="D38" t="s">
+        <v>119</v>
+      </c>
+      <c r="E38" s="3">
+        <v>2</v>
+      </c>
+      <c r="F38" s="3">
+        <v>2</v>
+      </c>
+      <c r="G38" t="s">
+        <v>497</v>
+      </c>
+      <c r="H38" t="s">
+        <v>502</v>
+      </c>
+      <c r="I38">
+        <v>3.94</v>
+      </c>
+      <c r="J38">
+        <v>1597</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>1533</v>
+      </c>
+      <c r="L38" s="3" t="s">
+        <v>1535</v>
+      </c>
+      <c r="M38" s="3">
+        <v>1</v>
+      </c>
+      <c r="N38" s="3">
+        <v>2</v>
+      </c>
+      <c r="O38" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>17</v>
+      </c>
+      <c r="B39" t="s">
+        <v>87</v>
+      </c>
+      <c r="C39" t="s">
+        <v>76</v>
+      </c>
+      <c r="D39" t="s">
+        <v>124</v>
+      </c>
+      <c r="E39" s="3">
+        <v>1</v>
+      </c>
+      <c r="F39" s="3">
+        <v>1</v>
+      </c>
+      <c r="G39" t="s">
+        <v>497</v>
+      </c>
+      <c r="H39" t="s">
+        <v>502</v>
+      </c>
+      <c r="I39">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="J39">
+        <v>677</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>1534</v>
+      </c>
+      <c r="L39" s="3" t="s">
+        <v>1535</v>
+      </c>
+      <c r="M39" s="3">
+        <v>1</v>
+      </c>
+      <c r="N39" s="3">
+        <v>3</v>
+      </c>
+      <c r="O39" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>23</v>
+      </c>
+      <c r="B40" t="s">
+        <v>322</v>
+      </c>
+      <c r="C40" t="s">
+        <v>76</v>
+      </c>
+      <c r="D40" t="s">
+        <v>48</v>
+      </c>
+      <c r="E40" s="3">
+        <v>1</v>
+      </c>
+      <c r="F40" s="3">
+        <v>1</v>
+      </c>
+      <c r="G40" t="s">
+        <v>497</v>
+      </c>
+      <c r="H40" t="s">
+        <v>502</v>
+      </c>
+      <c r="I40">
+        <v>4.42</v>
+      </c>
+      <c r="J40">
+        <v>384</v>
+      </c>
+      <c r="K40" s="3" t="s">
+        <v>1534</v>
+      </c>
+      <c r="L40" s="3" t="s">
+        <v>1535</v>
+      </c>
+      <c r="M40" s="3">
+        <v>0</v>
+      </c>
+      <c r="N40" s="3">
+        <v>3</v>
+      </c>
+      <c r="O40" s="3">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/ML/perfumes.xlsx
+++ b/ML/perfumes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ssafy\PJT2\S06P22D104\ML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00C0DF63-88A2-40A8-A85F-72358426A4C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF83F005-D539-43A9-BB64-EABF51249B2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="kmeans_train" sheetId="1" r:id="rId1"/>
@@ -5289,15 +5289,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O1112"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="5" max="6" width="9" style="3"/>
     <col min="11" max="11" width="68" style="3" customWidth="1"/>
-    <col min="12" max="15" width="9" style="3"/>
+    <col min="12" max="12" width="16.75" style="3" customWidth="1"/>
+    <col min="13" max="15" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
@@ -57575,7 +57576,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83125CB9-2952-4C9C-9E89-3FCDBE62029A}">
   <dimension ref="A1:O40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
